--- a/data/income_statement/3digits/total/464_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/464_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>464-Wholesale of household goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>464-Wholesale of household goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,521 +841,591 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>112237119.83233</v>
+        <v>112237985.99098</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>130718218.29412</v>
+        <v>131334945.08779</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>167245765.20023</v>
+        <v>167289449.32827</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>198834520.37332</v>
+        <v>198975989.17101</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>210665062.9585401</v>
+        <v>211087543.87011</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>243569873.58544</v>
+        <v>244348080.04854</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>273791157.86222</v>
+        <v>278107896.82256</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>302121676.64337</v>
+        <v>312469713.96065</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>399496639.09822</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>481056871.54175</v>
+        <v>482124001.5789</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>583061174.18143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>588753432.49507</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>791242556.021</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>83846710.46182999</v>
+        <v>83846710.46183001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>98008075.99533001</v>
+        <v>98623313.77519</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>122254743.68315</v>
+        <v>122297523.78347</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>138548514.55694</v>
+        <v>138665866.48209</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>154284444.38463</v>
+        <v>154659654.25903</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>181106996.58201</v>
+        <v>181676067.23163</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>200617237.6162</v>
+        <v>203827187.85961</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>216303054.51807</v>
+        <v>225910888.5894</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>287377910.10315</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>335522641.87995</v>
+        <v>336182068.86627</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>411989613.28504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>416589200.99183</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>584933093.506</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>26143372.16243</v>
+        <v>26144237.27808</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>30243231.03094</v>
+        <v>30243868.08318</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>41941745.76903</v>
+        <v>41942225.62681</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>56759911.06067</v>
+        <v>56783918.33284999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>53156845.84165999</v>
+        <v>53203404.79576001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>58620392.30139</v>
+        <v>58818055.23314</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>68768040.12567</v>
+        <v>69838428.68051001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>81045728.10070001</v>
+        <v>81633885.91608</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>105973976.4931</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>137688052.99864</v>
+        <v>138088823.84508</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>161965923.49961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>163019589.30143</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>195086387.986</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2247037.20807</v>
+        <v>2247038.25107</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2466911.26785</v>
+        <v>2467763.22942</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3049275.74805</v>
+        <v>3049699.91799</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3526094.75571</v>
+        <v>3526204.35607</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3223772.73225</v>
+        <v>3224484.81532</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3842484.70204</v>
+        <v>3853957.58377</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4405880.12035</v>
+        <v>4442280.28244</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4772894.0246</v>
+        <v>4924939.45517</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6144752.501970001</v>
+        <v>6144752.50197</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7846176.66316</v>
+        <v>7853108.867550001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9105637.396779999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9144642.201809999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11223074.529</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>7249417.63184</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8519127.82185</v>
+        <v>8675197.838950001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>11060696.30788</v>
+        <v>11060973.80598</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12236424.2349</v>
+        <v>12245693.20639</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13816061.49851</v>
+        <v>13830925.29917</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>15348793.38891</v>
+        <v>15388080.62109</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>16470027.09061</v>
+        <v>16887094.56157</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>18489097.69415</v>
+        <v>19286840.71912</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>22483655.97395</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>25087463.15174</v>
+        <v>25093773.68454</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>30138954.24686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>30240464.60464</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>37865254.048</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2120137.41578</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2385193.7871</v>
+        <v>2393463.32392</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2824345.42484</v>
+        <v>2824621.69891</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3265414.96217</v>
+        <v>3273721.59015</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3472541.98239</v>
+        <v>3481638.35745</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4102808.82723</v>
+        <v>4126247.21131</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4388931.7761</v>
+        <v>4443576.715439999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5503153.1787</v>
+        <v>5647745.870459999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>5561528.19258</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6667883.233229999</v>
+        <v>6673519.16809</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6986835.017229999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7072562.47401</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>10426484.649</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4465171.397229999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5318608.8325</v>
+        <v>5466409.312779999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7288321.50817</v>
+        <v>7288322.732199999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7836015.94217</v>
+        <v>7836865.94959</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>9025291.570720002</v>
+        <v>9030658.655560002</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>9607915.918569999</v>
+        <v>9621000.31837</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9979563.85237</v>
+        <v>10329353.78713</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10560053.45063</v>
+        <v>11189834.05789</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>14022461.10203</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>14411738.80115</v>
+        <v>14412039.33831</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>18747804.45704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18757465.16107</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>22798668.893</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>664108.81883</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>815325.2022499999</v>
+        <v>815325.20225</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>948029.3748700001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1134993.33056</v>
+        <v>1135105.66665</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1318227.9454</v>
+        <v>1318628.28616</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1638068.64311</v>
+        <v>1640833.09141</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2101531.46214</v>
+        <v>2114164.059</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2425891.06482</v>
+        <v>2449260.79077</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>2899666.67934</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4007841.11736</v>
+        <v>4008215.17814</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4404314.77259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4410436.969559999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4640100.506</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>104987702.20049</v>
+        <v>104988568.35914</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>122199090.47227</v>
+        <v>122659747.24884</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>156185068.89235</v>
+        <v>156228475.52229</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>186598096.13842</v>
+        <v>186730295.96462</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>196849001.46003</v>
+        <v>197256618.57094</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>228221080.19653</v>
+        <v>228959999.42745</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>257321130.77161</v>
+        <v>261220802.26099</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>283632578.9492199</v>
+        <v>293182873.2415299</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>377012983.12427</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>455969408.39001</v>
+        <v>457030227.89436</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>552922219.9345701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>558512967.8904301</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>753377301.973</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>89324574.79704998</v>
+        <v>89325272.92642999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>104558606.34406</v>
+        <v>104884332.08403</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>134270415.22665</v>
+        <v>134310573.64234</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>162619114.36566</v>
+        <v>162736733.74932</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>168820249.52134</v>
+        <v>169178072.84431</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>196055199.53819</v>
+        <v>196662313.62237</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>221524172.16119</v>
+        <v>224533207.94001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>244389180.21549</v>
+        <v>252364745.75911</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>326752002.44594</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>398322452.8314301</v>
+        <v>399319127.32648</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>486128833.92172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>491145106.00323</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>672020971.73</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>6073983.337239999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6867841.642139999</v>
+        <v>7067962.87585</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>7500347.913910001</v>
+        <v>7500586.08863</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8714869.776290001</v>
+        <v>8732040.148470001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>10861789.35939</v>
+        <v>10896925.37543</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16717091.84596</v>
+        <v>16747589.67773</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16361167.88034</v>
+        <v>16510345.51105</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>20074511.41714</v>
+        <v>20426868.79069</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>31007647.04056</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>30945273.44572</v>
+        <v>30989826.88268</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>52520733.05134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>53024072.01727001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>72262888.32700001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>82136467.32184</v>
+        <v>82137165.45122001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>96455704.89799999</v>
+        <v>96581309.40425999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>125188515.36323</v>
+        <v>125227543.01361</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>152366521.33376</v>
+        <v>152466853.47733</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>156205740.68363</v>
+        <v>156521835.80144</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>177329588.38581</v>
+        <v>177902850.37111</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>203007492.90426</v>
+        <v>205783301.04916</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>220068255.44304</v>
+        <v>227645456.88404</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>285398375.8125799</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>361690348.50118</v>
+        <v>362580182.78052</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>428162783.32556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>432534944.1412399</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>591961737.677</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>997859.6178600001</v>
+        <v>997859.61786</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>1100534.41362</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1402744.85449</v>
+        <v>1403637.44508</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1379939.4923</v>
+        <v>1380055.85392</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1596316.95779</v>
+        <v>1602880.93108</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1816145.9401</v>
+        <v>1819453.35714</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1887389.56254</v>
+        <v>1964395.2428</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3848347.842179999</v>
+        <v>3893765.61231</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>9137467.65533</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4700876.43702</v>
+        <v>4759204.54508</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4168608.543120001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4306432.686199999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6173171.083</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>116264.52011</v>
@@ -1466,112 +1437,127 @@
         <v>178807.09502</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>157783.76331</v>
+        <v>157784.2696</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>156402.52053</v>
+        <v>156430.73636</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>192373.36632</v>
+        <v>192420.21639</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>268121.81405</v>
+        <v>275166.137</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>398065.51313</v>
+        <v>398654.47207</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1208511.93747</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>985954.44751</v>
+        <v>989913.1182</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1276709.0017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1279657.15852</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1623174.643</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>15663127.40344</v>
+        <v>15663295.43271</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>17640484.12821</v>
+        <v>17775415.16481</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>21914653.6657</v>
+        <v>21917901.87995</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>23978981.77276</v>
+        <v>23993562.2153</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>28028751.93869</v>
+        <v>28078545.72663</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>32165880.65834</v>
+        <v>32297685.80508</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>35796958.61042</v>
+        <v>36687594.32098</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>39243398.73373</v>
+        <v>40818127.48242</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>50260980.67833</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>57646955.55858</v>
+        <v>57711100.56788</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>66793386.01285001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>67367861.8872</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>81356330.243</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>11882058.3971</v>
+        <v>11882183.56296</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>13761898.84444</v>
+        <v>13884930.57991</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>16674228.64388</v>
+        <v>16675202.12471</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>18837208.93332</v>
+        <v>18855765.80427</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>21170757.48821</v>
+        <v>21233556.70858</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>24387417.76898</v>
+        <v>24501840.73091</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>26511106.40921</v>
+        <v>27276456.42119</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>28954547.73554</v>
+        <v>30175060.30696</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>35905371.89917</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>39850775.37082</v>
+        <v>39976677.78663</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>46221080.09606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>46646169.70335</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>51083965.801</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>66487.81462</v>
@@ -1589,184 +1575,209 @@
         <v>100703.36763</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>105619.54074</v>
+        <v>105650.19015</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>88284.01393</v>
+        <v>101527.48695</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>119375.88435</v>
+        <v>122875.01434</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>154562.85898</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>194644.5959</v>
+        <v>195354.11452</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>269493.7235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>267277.5718</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>300068.837</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>7220202.18121</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8590102.41636</v>
+        <v>8674050.862579999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>10401011.59807</v>
+        <v>10401348.67952</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11864759.37284</v>
+        <v>11867877.92876</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>13315798.06057</v>
+        <v>13355637.06946</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>15414614.82033</v>
+        <v>15473435.73007</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>16618321.71863</v>
+        <v>17154798.1454</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>18019431.94025</v>
+        <v>18830888.7171</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>23210350.89587</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>24953934.12845001</v>
+        <v>24988700.66542</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>28484721.58249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>28629013.57675</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>31681797.124</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4595368.40127</v>
+        <v>4595493.56713</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5098841.7797</v>
+        <v>5137925.06895</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6189249.606480001</v>
+        <v>6189886.005860001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>6868723.51874</v>
+        <v>6884161.83377</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>7754256.06001</v>
+        <v>7777216.27149</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>8867183.407910001</v>
+        <v>8922754.810690001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>9804500.676649999</v>
+        <v>10020130.78884</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>10815739.91094</v>
+        <v>11221296.57552</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>12540458.14432</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>14702196.64647</v>
+        <v>14792623.00669</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>17466864.79007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17749878.5548</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>19102099.84</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3781069.00634</v>
+        <v>3781111.86975</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3878585.283770001</v>
+        <v>3890484.5849</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5240425.021819999</v>
+        <v>5242699.75524</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5141772.839439999</v>
+        <v>5137796.411030001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6857994.450479999</v>
+        <v>6844989.01805</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7778462.88936</v>
+        <v>7795845.07417</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9285852.20121</v>
+        <v>9411137.89979</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>10288850.99819</v>
+        <v>10643067.17546</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>14355608.77916</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>17796180.18776</v>
+        <v>17734422.78125</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>20572305.91679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20721692.18385</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>30272364.442</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3650891.56394</v>
+        <v>3650883.13775</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3376279.11434</v>
+        <v>3381300.08185</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5293150.031230001</v>
+        <v>5293701.62563</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5028983.43104</v>
+        <v>5039241.07679</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5926777.045510001</v>
+        <v>5995539.34879</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6709592.72135</v>
+        <v>6739186.98807</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11404520.22659</v>
+        <v>11732244.93644</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9793969.33615</v>
+        <v>10288729.1704</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>14285183.85071</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>32216071.5888</v>
+        <v>32408091.13272</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21916361.37501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>22018874.85249</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>34282813.988</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>35401.55956</v>
@@ -1778,16 +1789,16 @@
         <v>54312.22659000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>43098.64250000001</v>
+        <v>43098.6425</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>65775.05697000001</v>
+        <v>75217.78735</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>105296.93009</v>
+        <v>105654.68588</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>69255.0393</v>
+        <v>70104.48264</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>113759.448</v>
@@ -1796,22 +1807,27 @@
         <v>108616.49797</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>116977.04646</v>
+        <v>139271.86207</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>161256.68104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>161303.71189</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>404939.522</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>11822.74572</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9924.645610000001</v>
+        <v>9924.64561</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>20356.01276</v>
@@ -1820,13 +1836,13 @@
         <v>326812.35029</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>97438.18265</v>
+        <v>97438.18264999999</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>112174.11695</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>127648.73996</v>
+        <v>127702.11428</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>145378.37247</v>
@@ -1835,55 +1851,65 @@
         <v>142229.06323</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>240507.31805</v>
+        <v>261226.52639</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>131125.05448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>131178.77989</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>62962.175</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>230416.76518</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>348187.19615</v>
+        <v>348286.68462</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>333456.7401400001</v>
+        <v>333456.74014</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>353741.81652</v>
+        <v>353761.01309</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>374284.58832</v>
+        <v>375217.41555</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>475960.14515</v>
+        <v>478503.59308</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>593772.4267300001</v>
+        <v>609063.63962</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>604399.34447</v>
+        <v>617122.6542100001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>824373.8206800001</v>
+        <v>824373.82068</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1586517.46397</v>
+        <v>1597478.03556</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2092796.07182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2108991.489</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1924843.12</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>63599.25240999999</v>
@@ -1895,73 +1921,83 @@
         <v>60178.14962</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>52521.42914</v>
+        <v>52530.45886</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>55588.4739</v>
+        <v>55591.78791000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>59108.65927</v>
+        <v>59108.65927000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>72019.48937000001</v>
+        <v>72226.91884999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>76187.97769</v>
+        <v>77654.68423</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>88290.36396</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>225221.09086</v>
+        <v>227345.14118</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>142128.20594</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>141610.53496</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>158148.168</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>112009.76078</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>105531.6841</v>
+        <v>108031.6841</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>150253.3471</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>106463.38335</v>
+        <v>106464.52029</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>143753.47758</v>
+        <v>144033.12158</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>168402.05418</v>
+        <v>168557.21675</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>243509.76417</v>
+        <v>248798.80317</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>287917.55084</v>
+        <v>298205.67807</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>364618.30714</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>471567.74531</v>
+        <v>475227.0373200001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>515701.6420399999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>517713.17661</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>530390.148</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>32481.57981</v>
@@ -1973,73 +2009,83 @@
         <v>17919.00621</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>239070.66968</v>
+        <v>239164.38099</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>33876.02263</v>
+        <v>33966.63329</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>20625.58268</v>
+        <v>20725.35732</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>25925.11923</v>
+        <v>26040.91789</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>26093.01522</v>
+        <v>26150.53699</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>28741.06025</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>112514.93949</v>
+        <v>112835.59874</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>210367.49067</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>211570.15959</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>291609.998</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2460739.3793</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1989071.97289</v>
+        <v>1989479.53731</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>3578831.03191</v>
+        <v>3579378.88323</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2652645.80947</v>
+        <v>2659758.28222</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3967800.60702</v>
+        <v>3980842.18816</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4131766.12177</v>
+        <v>4141819.66481</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8475046.092110001</v>
+        <v>8656794.919030001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6586481.539660001</v>
+        <v>6805226.40177</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>10231327.42784</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>25343205.49048</v>
+        <v>25432675.22624</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>14064688.71426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14136725.34411</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>26463079.263</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>118174.95239</v>
@@ -2060,25 +2106,30 @@
         <v>363492.7794000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>377502.27934</v>
+        <v>379073.62376</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>351784.26595</v>
+        <v>458441.3440700001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>495511.28123</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>929864.9313400001</v>
+        <v>929887.97834</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1360330.46035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1360366.39408</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1006682.886</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>8151.97393</v>
@@ -2087,115 +2138,130 @@
         <v>5794.39831</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>8056.191869999999</v>
+        <v>8056.191870000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8937.184440000001</v>
+        <v>8937.184439999999</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>15069.16815</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>21559.52319</v>
+        <v>21565.88892</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>30349.26684</v>
+        <v>30551.60577</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>31427.91396</v>
+        <v>31445.48302</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>76092.07815</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>138605.43105</v>
+        <v>138920.09171</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>54235.48401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>54918.16091</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>107510.859</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>578093.5948600001</v>
+        <v>578085.1686699999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>709319.2589400001</v>
+        <v>711333.1735599999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>956645.25676</v>
+        <v>956648.9998399999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1117010.77111</v>
+        <v>1120032.86957</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>944625.8419999998</v>
+        <v>989597.4378600001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1251206.80867</v>
+        <v>1267585.02569</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1389492.00954</v>
+        <v>1511887.91143</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1570539.90789</v>
+        <v>1715344.56757</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1925383.95026</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3051090.13179</v>
+        <v>3093223.63517</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3183731.5704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3194497.10145</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>3332647.849</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3148607.89128</v>
+        <v>3148610.04453</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2751311.20308</v>
+        <v>2751754.55238</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4591575.61912</v>
+        <v>4593220.85623</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3308192.15893</v>
+        <v>3312410.51848</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5737541.43592</v>
+        <v>5752590.924020001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5853886.64147</v>
+        <v>5869475.97963</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10871725.15172</v>
+        <v>11123251.30005</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9528427.817399999</v>
+        <v>9923018.57148</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>13691585.01623</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>31020825.90904</v>
+        <v>31120991.98897</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>18295685.4343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>18375441.32962</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>30591713.441</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>78168.32201999999</v>
@@ -2210,31 +2276,36 @@
         <v>75779.54151</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>96346.20875000001</v>
+        <v>96360.09099000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>96064.8352</v>
+        <v>96139.37502000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>103525.05432</v>
+        <v>104626.88925</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>121737.37453</v>
+        <v>121964.34254</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>286063.00243</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>151935.47629</v>
+        <v>152813.96702</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>253607.75729</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>255874.74467</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>315932.529</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>429960.21126</v>
@@ -2243,37 +2314,42 @@
         <v>316607.86311</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>403660.28541</v>
+        <v>403661.52266</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>651393.0237299999</v>
+        <v>653199.72638</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>777188.30776</v>
+        <v>777762.89897</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>679134.8007</v>
+        <v>679771.4768599999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>942054.9256900001</v>
+        <v>950311.2971600001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1137197.54442</v>
+        <v>1163572.91815</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1145055.96401</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1081128.12582</v>
+        <v>1081224.87467</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1254725.51168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1257728.8906</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>940034.402</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>30297.69113</v>
@@ -2285,10 +2361,10 @@
         <v>36040.20447</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>9233.516729999999</v>
+        <v>9233.516730000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>53017.80721000001</v>
+        <v>53017.80721</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>51856.98001</v>
@@ -2303,55 +2379,65 @@
         <v>20013.42452</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>43595.20068</v>
+        <v>43610.23020000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>51169.14946</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>51169.14945999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>135169.565</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>2247820.41705</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1959406.2899</v>
+        <v>1959849.6392</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3489117.85223</v>
+        <v>3490761.85209</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2041967.91577</v>
+        <v>2044347.57903</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4155873.10141</v>
+        <v>4169214.10655</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4165132.52235</v>
+        <v>4174588.04891</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8714211.145889999</v>
+        <v>8910230.61483</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6958632.75677</v>
+        <v>7175583.940389999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>10497126.72804</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>26529746.05444</v>
+        <v>26624806.80195</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13841893.69034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13912158.32052</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>22894029.697</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>103182.84344</v>
@@ -2369,418 +2455,473 @@
         <v>247591.90288</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>379599.20123</v>
+        <v>379599.2012299999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>393506.75719</v>
+        <v>396013.58329</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>361420.20015</v>
+        <v>468149.37333</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>555373.9420599999</v>
+        <v>555373.94206</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1073624.57149</v>
+        <v>1073629.00849</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1299410.71267</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1051628.899</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>5039.01821</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>7985.316599999999</v>
+        <v>7985.3166</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>16301.24911</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>5930.305130000001</v>
+        <v>5930.30513</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>10952.01666</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>16228.24959</v>
+        <v>16250.76411</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>20302.12018</v>
+        <v>20957.57473</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>26674.91479</v>
+        <v>26652.44601</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>46998.30145000001</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>142326.52056</v>
+        <v>144084.65859</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>46641.35694</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>47551.37003</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>145527.945</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>254139.38817</v>
+        <v>254141.54142</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>268882.41643</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>429516.0039699999</v>
+        <v>429516.00397</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>397533.72584</v>
+        <v>397565.71948</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>396572.09125</v>
+        <v>397692.10076</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>465870.05239</v>
+        <v>471270.13349</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>661569.34652</v>
+        <v>704555.53886</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>906276.3104700001</v>
+        <v>950606.8347900001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1140953.65372</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1998469.95976</v>
+        <v>2000822.44805</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1548237.25592</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1551548.14167</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5109390.404</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1710506.92357</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1379446.11225</v>
+        <v>1381063.59541</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2715222.77323</v>
+        <v>2715534.97443</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2706608.65474</v>
+        <v>2713724.85719</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3210294.70296</v>
+        <v>3229234.07112</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3327518.00511</v>
+        <v>3343843.02347</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4521442.48564</v>
+        <v>4583836.473479999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4731926.98783</v>
+        <v>4927563.888850001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>6036082.25005</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10404941.18453</v>
+        <v>10416599.60471</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>9741001.67983</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9809433.712869998</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9706121.188999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1621950.38425</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1323264.92247</v>
+        <v>1324882.40563</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2625302.46077</v>
+        <v>2625614.66197</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2619419.51267</v>
+        <v>2620808.94731</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3057828.2069</v>
+        <v>3067194.47859</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3103884.79936</v>
+        <v>3112280.08849</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4136332.253299999</v>
+        <v>4177831.90842</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4391742.766489999</v>
+        <v>4585740.641770001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5579838.52042</v>
+        <v>5579838.520420001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9700909.68871</v>
+        <v>9712462.91928</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>9080098.049470002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9148438.525899999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9151985.471999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>88556.53932000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>56181.18977999999</v>
+        <v>56181.18978</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>89920.31246000002</v>
+        <v>89920.31245999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>87189.14206999999</v>
+        <v>92915.90987999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>152466.49606</v>
+        <v>162039.59253</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>223633.20575</v>
+        <v>231562.93498</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>385110.23234</v>
+        <v>406004.5650600001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>340184.22134</v>
+        <v>341823.24708</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>456243.72963</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>704031.49582</v>
+        <v>704136.68543</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>660903.6303600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>660995.18697</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>554135.7169999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2572845.75543</v>
+        <v>2572878.0394</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3124107.08278</v>
+        <v>3138966.51896</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3226776.6607</v>
+        <v>3227645.55021</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4155955.45681</v>
+        <v>4150902.11215</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3836935.357110001</v>
+        <v>3858703.3717</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5306650.96413</v>
+        <v>5321713.05914</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5297204.79044</v>
+        <v>5436295.0627</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5822465.52911</v>
+        <v>6081213.88553</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>8913125.36359</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8586484.68299</v>
+        <v>8604922.320290001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>14451980.17767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>14555691.99385</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>24257343.8</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>437503.88736</v>
+        <v>437503.8873599999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>588577.4334</v>
+        <v>588830.7260800001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>582048.3901300001</v>
+        <v>582080.8688200001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>649142.35849</v>
+        <v>649960.7974299999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>818838.7936500001</v>
+        <v>821836.03269</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>987058.50528</v>
+        <v>991872.55125</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1013065.72269</v>
+        <v>1039515.78562</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1250853.96377</v>
+        <v>1289217.96778</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1242266.39363</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1377647.77942</v>
+        <v>1388093.84402</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1647639.02645</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1673117.73723</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2212956.632</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>26182.38707</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>26314.07656</v>
+        <v>26453.47626</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>62547.34681</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>21800.46368</v>
+        <v>21844.50369</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>40107.0249</v>
+        <v>40777.06859999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>24744.7521</v>
+        <v>24917.41019</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>25624.85406</v>
+        <v>25707.53553</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>71187.55836</v>
+        <v>71454.07185000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>44357.76987</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>34256.77461</v>
+        <v>36118.47944</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>44658.21983000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>50457.13872</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>58912.518</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>411321.50029</v>
+        <v>411321.5002899999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>562263.3568399999</v>
+        <v>562377.24982</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>519501.04332</v>
+        <v>519533.52201</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>627341.89481</v>
+        <v>628116.29374</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>778731.7687500002</v>
+        <v>781058.96409</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>962313.7531800001</v>
+        <v>966955.1410599999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>987440.8686300002</v>
+        <v>1013808.25009</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1179666.40541</v>
+        <v>1217763.89593</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1197908.62376</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1343391.00481</v>
+        <v>1351975.36458</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1602980.80662</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1622660.59851</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2154044.114</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>456875.0963099999</v>
+        <v>456875.09631</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>560746.33724</v>
+        <v>560852.42474</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2074093.34677</v>
+        <v>2074208.92619</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>615164.74416</v>
+        <v>615932.7425999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>662967.64654</v>
+        <v>663421.0229600001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1341591.13122</v>
+        <v>1345642.53627</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>762600.6416300001</v>
+        <v>803548.6354599999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2177166.01679</v>
+        <v>2213894.21924</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1189171.70802</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2689797.79114</v>
+        <v>2744951.44324</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1634421.64477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1656486.68012</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2508412.362</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>19453.03829</v>
@@ -2798,220 +2939,248 @@
         <v>16853.68316</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>17397.54938</v>
+        <v>17448.09301</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>32247.43771</v>
+        <v>33052.06202</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>17513.69617</v>
+        <v>17719.17285</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>33177.80185</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>26115.65839</v>
+        <v>26273.71552</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>51200.33639</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>51883.48199</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>29699.01</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>41804.53273</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>52188.75489</v>
+        <v>52193.34224000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>113242.70169</v>
+        <v>113247.54081</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>58706.35804000001</v>
+        <v>58706.35803999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>61944.96584</v>
+        <v>62126.2871</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>61764.75431999999</v>
+        <v>61778.61676</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>67577.37898000001</v>
+        <v>73455.72796999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>119732.97115</v>
+        <v>121489.08057</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>87784.07107999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>104457.0472</v>
+        <v>105078.1776</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>137105.08599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>137448.56997</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>98344.681</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>395617.52529</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>496918.19421</v>
+        <v>497019.69436</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1949086.97448</v>
+        <v>1949197.71478</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>541776.0114600001</v>
+        <v>542544.0098999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>584168.99754</v>
+        <v>584441.0527</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1262428.82752</v>
+        <v>1266415.8265</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>662775.8249400001</v>
+        <v>697040.8454700001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2039919.34947</v>
+        <v>2074685.96582</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1068209.83509</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2559225.08555</v>
+        <v>2613599.55012</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1446116.22239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1467154.62816</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2380368.671</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2553474.54648</v>
+        <v>2553506.83045</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3151938.17894</v>
+        <v>3166944.8203</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1734731.70406</v>
+        <v>1735517.49284</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4189933.07114</v>
+        <v>4184930.16698</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3992806.50422</v>
+        <v>4017118.38143</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4952118.33819</v>
+        <v>4967943.07412</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5547669.8715</v>
+        <v>5672262.212859999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4896153.47609</v>
+        <v>5156537.63407</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>8966220.049199998</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7274334.67127</v>
+        <v>7248064.72107</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>14465197.55935</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>14572323.05096</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>23961888.07</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>569878.9906200001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>693250.67001</v>
+        <v>696838.97752</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>835939.07089</v>
+        <v>836137.27767</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>894900.2299500001</v>
+        <v>895206.43431</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1024495.54179</v>
+        <v>1026455.01977</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1137943.12802</v>
+        <v>1142508.41934</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1311156.27286</v>
+        <v>1343934.42771</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1507280.67829</v>
+        <v>1563832.2817</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1970000.03185</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2552873.95025</v>
+        <v>2564337.21448</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3308850.77938</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3342867.72456</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4953637.465</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1983595.55586</v>
+        <v>1983627.83983</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2458687.50893</v>
+        <v>2470105.84278</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>898792.6331699998</v>
+        <v>899380.2151700001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3295032.841190001</v>
+        <v>3289723.73267</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2968310.96243</v>
+        <v>2990663.36166</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3814175.21017</v>
+        <v>3825434.65478</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4236513.59864</v>
+        <v>4328327.78515</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3388872.7978</v>
+        <v>3592705.35237</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>6996220.01735</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4721460.72102</v>
+        <v>4683727.50659</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11156346.77997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11229455.3264</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>19008250.605</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>35930</v>
+        <v>35932</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>36841</v>
+        <v>36844</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>37301</v>
+        <v>37309</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>36234</v>
+        <v>36269</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>36363</v>
+        <v>36430</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>36922</v>
+        <v>37057</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>37355</v>
+        <v>37670</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>37996</v>
+        <v>38299</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>39676</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>37617</v>
+        <v>42019</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>38798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>44658</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>47808</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>